--- a/xlsx/物流_intext.xlsx
+++ b/xlsx/物流_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E6%AB%83</t>
   </si>
   <si>
-    <t>貨櫃</t>
+    <t>货柜</t>
   </si>
   <si>
     <t>政策_政策_管理_物流</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%B5%E9%9D%92%E8%B2%A8%E6%AB%83%E7%A2%BC%E9%A0%AD</t>
   </si>
   <si>
-    <t>葵青貨櫃碼頭</t>
+    <t>葵青货柜码头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E5%8B%A4</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>系統</t>
+    <t>系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>運輸</t>
+    <t>运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8D%E9%80%81</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E8%A3%9D</t>
   </si>
   <si>
-    <t>包裝</t>
+    <t>包装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E5%8B%A4%E4%BF%9D%E9%9A%9C</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%87%E8%B4%AD</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>大陸</t>
+    <t>大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/APL</t>
@@ -209,37 +209,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6</t>
   </si>
   <si>
-    <t>專家</t>
+    <t>专家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E5%B8%AB</t>
   </si>
   <si>
-    <t>會計師</t>
+    <t>会计师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫師</t>
+    <t>医师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E7%90%86%E5%B8%AB</t>
   </si>
   <si>
-    <t>護理師</t>
+    <t>护理师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>工程師</t>
+    <t>工程师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%95%88%E7%9B%8A</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E6%87%89%E9%8F%88</t>
   </si>
   <si>
-    <t>供應鏈</t>
+    <t>供应链</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%8B%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>後勤學</t>
+    <t>后勤学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E7%89%A9%E6%B5%81%E5%AD%A6</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%84%E9%A0%BB%E8%AD%98%E5%88%A5</t>
   </si>
   <si>
-    <t>射頻識別</t>
+    <t>射频识别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%BF%BD%E6%BA%AF%E6%80%A7_(%E7%89%A9%E6%B5%81)</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -599,13 +599,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -731,25 +731,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -827,13 +827,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -893,13 +893,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -971,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
